--- a/interface/data/test_data.xlsx
+++ b/interface/data/test_data.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="register" sheetId="2" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>case</t>
   </si>
@@ -33,25 +33,148 @@
     <t>method</t>
   </si>
   <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"18888800001","pwd":"111111"}</t>
+  </si>
+  <si>
     <t>正常登录</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
+    <t>{"mobilephone":"18888800001","pwd":"111112"}</t>
+  </si>
+  <si>
     <t>密码错误</t>
   </si>
   <si>
+    <t>{"mobilephone":"18888800001","pwd":""}</t>
+  </si>
+  <si>
     <t>密码为空</t>
   </si>
   <si>
+    <t>{"mobilephone":"1888880000","pwd":"111111"}</t>
+  </si>
+  <si>
+    <t>账号格式错误</t>
+  </si>
+  <si>
     <t>post</t>
   </si>
   <si>
-    <t>账号格式错误</t>
+    <t>{"mobilephone":"","pwd":"111111"}</t>
+  </si>
+  <si>
+    <t>账号为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"15555500001","pwd":"111111"}</t>
   </si>
   <si>
     <t>账号未注册</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"19999900001","pwd":"111111","regname":""}</t>
+  </si>
+  <si>
+    <t>正常注册</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"19999900002","pwd":"11111","regname":""}</t>
+  </si>
+  <si>
+    <t>密码不足6位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"19999900002","pwd":"1122334455667788990","regname":""}</t>
+  </si>
+  <si>
+    <t>密码超过18位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"19999900002","pwd":"","regname":""}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"111111","regname":""}</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"1888880000","pwd":"111111","regname":""}</t>
+  </si>
+  <si>
+    <t>手机号格式错误</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"18888800001","pwd":"111111","regname":""}</t>
+  </si>
+  <si>
+    <t>手机号已注册</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"18888800001","amount":"1000"}</t>
+  </si>
+  <si>
+    <t>正常充值</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","amount":"1000"}</t>
+  </si>
+  <si>
+    <t>充值账号为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"18888800001","amount":""}</t>
+  </si>
+  <si>
+    <t>充值金额为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"19999900002","amount":"1000"}</t>
+  </si>
+  <si>
+    <t>不存在此账号</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"1888880000","amount":"1000"}</t>
+  </si>
+  <si>
+    <t>充值账号格式错误</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"1888880000","amount":"1000.555"}</t>
+  </si>
+  <si>
+    <t>充值金额小数位超过2位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"1888880000","amount":"-1000"}</t>
+  </si>
+  <si>
+    <t>充值金额小于0</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"1888880000","amount":"500001"}</t>
+  </si>
+  <si>
+    <t>充值金额大于50万</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"1888880000","amount":"aaa"}</t>
+  </si>
+  <si>
+    <t>充值金额非数字</t>
   </si>
 </sst>
 </file>
@@ -64,12 +187,27 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,13 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -141,13 +272,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -180,14 +304,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -197,20 +313,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +325,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -233,6 +349,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,79 +445,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,24 +511,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,12 +524,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,88 +645,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -619,63 +735,66 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,16 +1145,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="50.5" customWidth="1"/>
-    <col min="3" max="3" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="3" max="3" width="45.875" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1060,58 +1179,113 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/login" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/login" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/login" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="B5" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/login" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="B7" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/login" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="B6" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/login" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1121,14 +1295,165 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="61.75" customWidth="1"/>
+    <col min="3" max="3" width="72.625" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/register" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/register" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B5" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/register" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B7" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/register" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B8" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/register" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/register" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B6" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/register" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1138,14 +1463,237 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="66.125" customWidth="1"/>
+    <col min="3" max="3" width="50.125" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/login" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="B5" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="B6" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="B7" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="B8" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="B11" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="B9" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="B10" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="B12" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/interface/data/test_data.xlsx
+++ b/interface/data/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="register" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -32,13 +32,6 @@
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,6 +67,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -82,36 +99,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -128,6 +115,14 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -137,6 +132,27 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,22 +170,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -180,187 +180,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,13 +398,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,6 +428,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -439,30 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -473,215 +473,215 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="23" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="15" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="14" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -970,22 +970,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col width="59" customWidth="1" style="1" min="2" max="2"/>
-    <col width="45.875" customWidth="1" style="1" min="3" max="3"/>
-    <col width="18.625" customWidth="1" style="1" min="4" max="4"/>
+    <col customWidth="1" max="2" min="2" style="1" width="59"/>
+    <col customWidth="1" max="3" min="3" style="1" width="45.875"/>
+    <col customWidth="1" max="4" min="4" style="1" width="18.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="12"/>
+    <col customWidth="1" max="8" min="8" style="1" width="14.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1016,7 +1018,17 @@
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>result</t>
+          <t>expect</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>return_data</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1056,10 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F2" s="0" t="inlineStr">
+      <c r="F2" s="0" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
         </is>
@@ -1074,7 +1089,10 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr">
+      <c r="F3" s="0" t="n">
+        <v>20111</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
         </is>
@@ -1104,7 +1122,10 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="0" t="inlineStr">
+      <c r="F4" s="0" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '密码不能为空'}</t>
         </is>
@@ -1134,7 +1155,10 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="0" t="inlineStr">
+      <c r="F5" s="0" t="n">
+        <v>20111</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
         </is>
@@ -1164,7 +1188,10 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="0" t="inlineStr">
+      <c r="F6" s="0" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '手机号不能为空'}</t>
         </is>
@@ -1194,7 +1221,10 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F7" s="0" t="inlineStr">
+      <c r="F7" s="0" t="n">
+        <v>20111</v>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
         </is>
@@ -1202,35 +1232,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId6"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="B2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="B3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="B4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="B5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="B6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId5"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="B7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col width="61.75" customWidth="1" style="1" min="2" max="2"/>
-    <col width="72.625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="15.75" customWidth="1" style="1" min="4" max="4"/>
+    <col customWidth="1" max="2" min="2" style="1" width="61.75"/>
+    <col customWidth="1" max="3" min="3" style="1" width="72.625"/>
+    <col customWidth="1" max="4" min="4" style="1" width="15.75"/>
+    <col customWidth="1" max="7" min="7" style="1" width="10.875"/>
+    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1259,6 +1291,21 @@
           <t>method</t>
         </is>
       </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>return_data</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
@@ -1437,36 +1484,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId7"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="B2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="B3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId2"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="B4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId3"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="B5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="B6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId5"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="B7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId6"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="B8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="66.125" customWidth="1" style="1" min="2" max="2"/>
-    <col width="50.125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="21.375" customWidth="1" style="1" min="4" max="4"/>
+    <col customWidth="1" max="2" min="2" style="1" width="66.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="50.125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="21.375"/>
+    <col customWidth="1" max="7" min="7" style="1" width="14"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13.625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1495,6 +1544,21 @@
           <t>method</t>
         </is>
       </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>return_data</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
@@ -1520,7 +1584,15 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F2" s="0" t="inlineStr">
+      <c r="F2" s="0" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
         </is>
@@ -1550,9 +1622,17 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>{'status': 1, 'code': '10001', 'data': {'id': 304678, 'regname': '', 'pwd': '96E79218965EB72C92A549DD5A330112', 'mobilephone': '18888800001', 'leaveamount': '5000.00', 'type': '1', 'regtime': '2020-03-20 18:08:44.0'}, 'msg': '充值成功'}</t>
+      <c r="F3" s="0" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>{'status': 1, 'code': '10001', 'data': {'id': 304678, 'regname': '', 'pwd': '96E79218965EB72C92A549DD5A330112', 'mobilephone': '18888800001', 'leaveamount': '10000.00', 'type': '1', 'regtime': '2020-03-20 18:08:44.0'}, 'msg': '充值成功'}</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1660,15 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="0" t="inlineStr">
+      <c r="F4" s="0" t="n">
+        <v>20103</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '手机号不能为空'}</t>
         </is>
@@ -1610,7 +1698,15 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F5" s="0" t="inlineStr">
+      <c r="F5" s="0" t="n">
+        <v>20115</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20115', 'data': None, 'msg': '请输入金额'}</t>
         </is>
@@ -1640,7 +1736,15 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F6" s="0" t="inlineStr">
+      <c r="F6" s="0" t="n">
+        <v>20109</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20109', 'data': None, 'msg': '手机号码格式不正确'}</t>
         </is>
@@ -1670,7 +1774,15 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F7" s="0" t="inlineStr">
+      <c r="F7" s="0" t="n">
+        <v>20109</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20109', 'data': None, 'msg': '手机号码格式不正确'}</t>
         </is>
@@ -1700,7 +1812,15 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F8" s="0" t="inlineStr">
+      <c r="F8" s="0" t="n">
+        <v>20116</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
         </is>
@@ -1730,7 +1850,15 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F9" s="0" t="inlineStr">
+      <c r="F9" s="0" t="n">
+        <v>20117</v>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
         </is>
@@ -1760,7 +1888,15 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F10" s="0" t="inlineStr">
+      <c r="F10" s="0" t="n">
+        <v>20117</v>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
         </is>
@@ -1768,7 +1904,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -1790,14 +1926,15 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>{'status': 0, 'code': '20118', 'data': None, 'msg': '请输入数字'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" t="inlineStr">
+      <c r="F11" s="0" t="n">
+        <v>20118</v>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>{'status': 0, 'code': '20118', 'data': None, 'msg': '请输入数字'}</t>
         </is>
@@ -1805,18 +1942,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId10"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="B2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="B3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId2"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="B4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId3"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="B5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="B6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId5"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="B7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId6"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="B8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId7"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="B9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId8"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="B10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId9"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="B11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>